--- a/HSN Products.xlsx
+++ b/HSN Products.xlsx
@@ -384,9 +384,6 @@
     <t>UPDATE HSN SET `Buyer Item Nbr` = '</t>
   </si>
   <si>
-    <t>', WHERE `ProcessedDate` = '"</t>
-  </si>
-  <si>
     <t>', `Manufacturer Item Nbr` = '</t>
   </si>
   <si>
@@ -394,6 +391,9 @@
   </si>
   <si>
     <t>';</t>
+  </si>
+  <si>
+    <t>' WHERE `ProcessedDate` = '"</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:I129"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -757,22 +759,22 @@
     </row>
     <row r="4" spans="1:9">
       <c r="I4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="I5" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="I6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="I7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -804,7 +806,7 @@
       </c>
       <c r="I10" t="str">
         <f>$I$3&amp;A10&amp;$I$4&amp;C10&amp;$I$5&amp;" + sdate + "&amp;$I$6&amp;B10&amp;$I$7</f>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107DTCBLKSOFT', `Manufacturer Item Nbr` = '828063312720', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '297624001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107DTCBLKSOFT', `Manufacturer Item Nbr` = '828063312720' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '297624001';</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -825,7 +827,7 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" ref="I11:I74" si="0">$I$3&amp;A11&amp;$I$4&amp;C11&amp;$I$5&amp;" + sdate + "&amp;$I$6&amp;B11&amp;$I$7</f>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107DTCRYLSOFT', `Manufacturer Item Nbr` = '828063312768', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '297624431';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107DTCRYLSOFT', `Manufacturer Item Nbr` = '828063312768' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '297624431';</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -846,7 +848,7 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107DTCPRPSOFT', `Manufacturer Item Nbr` = '828063312782', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '297624502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107DTCPRPSOFT', `Manufacturer Item Nbr` = '828063312782' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '297624502';</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -867,7 +869,7 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107DTCREDSOFT', `Manufacturer Item Nbr` = '828063312775', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '297624611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107DTCREDSOFT', `Manufacturer Item Nbr` = '828063312775' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '297624611';</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -888,7 +890,7 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107DTCMAGSOFT', `Manufacturer Item Nbr` = '828063412703', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '297624686';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107DTCMAGSOFT', `Manufacturer Item Nbr` = '828063412703' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '297624686';</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -909,7 +911,7 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107D8GBSPBLK', `Manufacturer Item Nbr` = '828063516722', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305452001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107D8GBSPBLK', `Manufacturer Item Nbr` = '828063516722' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305452001';</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -930,7 +932,7 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107D8GBSPGRN', `Manufacturer Item Nbr` = '828063516746', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305452304';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107D8GBSPGRN', `Manufacturer Item Nbr` = '828063516746' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305452304';</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -951,7 +953,7 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107D8GBSPRYL', `Manufacturer Item Nbr` = '828063516760', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305452431';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107D8GBSPRYL', `Manufacturer Item Nbr` = '828063516760' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305452431';</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -972,7 +974,7 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107D8GBSPPRP', `Manufacturer Item Nbr` = '828063516784', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305452502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107D8GBSPPRP', `Manufacturer Item Nbr` = '828063516784' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305452502';</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -993,7 +995,7 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107D8GBSPRED', `Manufacturer Item Nbr` = '828063516777', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305452611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107D8GBSPRED', `Manufacturer Item Nbr` = '828063516777' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305452611';</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1014,7 +1016,7 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107D8GBSPPNK', `Manufacturer Item Nbr` = '828063516708', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305452649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107D8GBSPPNK', `Manufacturer Item Nbr` = '828063516708' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305452649';</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1035,7 +1037,7 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107D8GBSPMAG', `Manufacturer Item Nbr` = '828063616705', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305452686';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME107D8GBSPMAG', `Manufacturer Item Nbr` = '828063616705' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305452686';</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1056,7 +1058,7 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-017-BLK', `Manufacturer Item Nbr` = '828063301724', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305478001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-017-BLK', `Manufacturer Item Nbr` = '828063301724' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305478001';</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1077,7 +1079,7 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-017-GRN', `Manufacturer Item Nbr` = '828063301748', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305478304';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-017-GRN', `Manufacturer Item Nbr` = '828063301748' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305478304';</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1098,7 +1100,7 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-017-RYL', `Manufacturer Item Nbr` = '828063401714', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305478431';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-017-RYL', `Manufacturer Item Nbr` = '828063401714' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305478431';</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1119,7 +1121,7 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-017-PRP', `Manufacturer Item Nbr` = '828063301786', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305478502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-017-PRP', `Manufacturer Item Nbr` = '828063301786' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305478502';</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1140,7 +1142,7 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-017-RED', `Manufacturer Item Nbr` = '828063301779', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305478611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-017-RED', `Manufacturer Item Nbr` = '828063301779' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305478611';</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1161,7 +1163,7 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-017-PNK', `Manufacturer Item Nbr` = '828063301700', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305478649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-017-PNK', `Manufacturer Item Nbr` = '828063301700' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305478649';</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1182,7 +1184,7 @@
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-017-MAG', `Manufacturer Item Nbr` = '828063301793', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305478686';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-017-MAG', `Manufacturer Item Nbr` = '828063301793' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '305478686';</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1203,7 +1205,7 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-110D-16GB-BLK', `Manufacturer Item Nbr` = '828063413021', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '310449001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-110D-16GB-BLK', `Manufacturer Item Nbr` = '828063413021' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '310449001';</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1224,7 +1226,7 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-110D-16GB-BLU', `Manufacturer Item Nbr` = '828063413014', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '310449404';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-110D-16GB-BLU', `Manufacturer Item Nbr` = '828063413014' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '310449404';</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1245,7 +1247,7 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-110D-16GB-PRP', `Manufacturer Item Nbr` = '828063413083', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '310449502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-110D-16GB-PRP', `Manufacturer Item Nbr` = '828063413083' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '310449502';</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,7 +1268,7 @@
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-110D-16GB-RED', `Manufacturer Item Nbr` = '828063413076', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '310449611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-110D-16GB-RED', `Manufacturer Item Nbr` = '828063413076' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '310449611';</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1287,7 +1289,7 @@
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-110D-16GB-PNK', `Manufacturer Item Nbr` = '828063413007', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '310449649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-110D-16GB-PNK', `Manufacturer Item Nbr` = '828063413007' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '310449649';</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1308,7 +1310,7 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-10D-16GB-BLK', `Manufacturer Item Nbr` = '828063512021', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316839001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-10D-16GB-BLK', `Manufacturer Item Nbr` = '828063512021' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316839001';</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1329,7 +1331,7 @@
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8QS16KCBLK', `Manufacturer Item Nbr` = '828063420821', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '395089001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8QS16KCBLK', `Manufacturer Item Nbr` = '828063420821' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '395089001';</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1350,7 +1352,7 @@
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8QS16KCGRN', `Manufacturer Item Nbr` = '828063420845', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '395089304';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8QS16KCGRN', `Manufacturer Item Nbr` = '828063420845' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '395089304';</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1371,7 +1373,7 @@
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8QS16KCRYL', `Manufacturer Item Nbr` = '828063420852', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '395089431';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8QS16KCRYL', `Manufacturer Item Nbr` = '828063420852' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '395089431';</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1392,7 +1394,7 @@
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8QS16KCPRP', `Manufacturer Item Nbr` = '828063420883', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '395089502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8QS16KCPRP', `Manufacturer Item Nbr` = '828063420883' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '395089502';</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1413,7 +1415,7 @@
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8QS16KCRED', `Manufacturer Item Nbr` = '828063420876', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '395089611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8QS16KCRED', `Manufacturer Item Nbr` = '828063420876' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '395089611';</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1434,7 +1436,7 @@
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8QS16KCPNK', `Manufacturer Item Nbr` = '828063420807', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '395089649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8QS16KCPNK', `Manufacturer Item Nbr` = '828063420807' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '395089649';</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1455,7 +1457,7 @@
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8QS16KCMAG', `Manufacturer Item Nbr` = '828063420869', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '395089686';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8QS16KCMAG', `Manufacturer Item Nbr` = '828063420869' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '395089686';</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1476,7 +1478,7 @@
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-10D-16GB-BLU', `Manufacturer Item Nbr` = '828063512014', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316839404';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-10D-16GB-BLU', `Manufacturer Item Nbr` = '828063512014' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316839404';</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1497,7 +1499,7 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-10D-16GB-PRP', `Manufacturer Item Nbr` = '828063512083', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316839502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-10D-16GB-PRP', `Manufacturer Item Nbr` = '828063512083' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316839502';</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1518,7 +1520,7 @@
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-10D-16GB-RED', `Manufacturer Item Nbr` = '828063512076', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316839611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-10D-16GB-RED', `Manufacturer Item Nbr` = '828063512076' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316839611';</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1539,7 +1541,7 @@
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-10D-16GB-PNK', `Manufacturer Item Nbr` = '828063512007', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316839649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-10D-16GB-PNK', `Manufacturer Item Nbr` = '828063512007' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316839649';</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1560,7 +1562,7 @@
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-010-BLK', `Manufacturer Item Nbr` = '828063301021', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316871001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-010-BLK', `Manufacturer Item Nbr` = '828063301021' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316871001';</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1581,7 +1583,7 @@
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-010-BLU', `Manufacturer Item Nbr` = '828063301014', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316871404';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-010-BLU', `Manufacturer Item Nbr` = '828063301014' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316871404';</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1602,7 +1604,7 @@
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-010-PRP', `Manufacturer Item Nbr` = '828063301083', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316871502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-010-PRP', `Manufacturer Item Nbr` = '828063301083' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316871502';</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1623,7 +1625,7 @@
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-010-RED', `Manufacturer Item Nbr` = '828063301076', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316871611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-010-RED', `Manufacturer Item Nbr` = '828063301076' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316871611';</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1644,7 +1646,7 @@
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-010-PNK', `Manufacturer Item Nbr` = '828063301007', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316871649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-TC-010-PNK', `Manufacturer Item Nbr` = '828063301007' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '316871649';</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1665,7 +1667,7 @@
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7F-16GB-BLK', `Manufacturer Item Nbr` = '828063617726', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '328928001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7F-16GB-BLK', `Manufacturer Item Nbr` = '828063617726' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '328928001';</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1686,7 +1688,7 @@
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7F-16GB-GRN', `Manufacturer Item Nbr` = '828063617740', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '328928304';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7F-16GB-GRN', `Manufacturer Item Nbr` = '828063617740' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '328928304';</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1707,7 +1709,7 @@
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7F-16GB-RYL', `Manufacturer Item Nbr` = '828063617764', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '328928431';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7F-16GB-RYL', `Manufacturer Item Nbr` = '828063617764' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '328928431';</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1728,7 +1730,7 @@
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7F-16GB-PRP', `Manufacturer Item Nbr` = '828063617788', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '328928502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7F-16GB-PRP', `Manufacturer Item Nbr` = '828063617788' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '328928502';</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1749,7 +1751,7 @@
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7F-16GB-RED', `Manufacturer Item Nbr` = '828063617771', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '328928611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7F-16GB-RED', `Manufacturer Item Nbr` = '828063617771' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '328928611';</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -1770,7 +1772,7 @@
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7F-16GB-PNK', `Manufacturer Item Nbr` = '828063617702', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '328928649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7F-16GB-PNK', `Manufacturer Item Nbr` = '828063617702' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '328928649';</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -1791,7 +1793,7 @@
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7F-16GB-MAG', `Manufacturer Item Nbr` = '828063717709', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '328928686';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7F-16GB-MAG', `Manufacturer Item Nbr` = '828063717709' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '328928686';</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -1812,7 +1814,7 @@
       </c>
       <c r="I58" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-BLK', `Manufacturer Item Nbr` = '828063412925', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '340915001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-BLK', `Manufacturer Item Nbr` = '828063412925' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '340915001';</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -1833,7 +1835,7 @@
       </c>
       <c r="I59" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-BLU', `Manufacturer Item Nbr` = '828063412918', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '340915404';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-BLU', `Manufacturer Item Nbr` = '828063412918' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '340915404';</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -1854,7 +1856,7 @@
       </c>
       <c r="I60" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-PRP', `Manufacturer Item Nbr` = '828063412987', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '340915502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-PRP', `Manufacturer Item Nbr` = '828063412987' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '340915502';</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -1875,7 +1877,7 @@
       </c>
       <c r="I61" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-RED', `Manufacturer Item Nbr` = '828063412970', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '340915611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-RED', `Manufacturer Item Nbr` = '828063412970' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '340915611';</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -1896,7 +1898,7 @@
       </c>
       <c r="I62" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-PNK', `Manufacturer Item Nbr` = '828063412901', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '340915649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-PNK', `Manufacturer Item Nbr` = '828063412901' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '340915649';</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -1917,7 +1919,7 @@
       </c>
       <c r="I63" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = '7D8TCSPFEAPBLK', `Manufacturer Item Nbr` = '828063519723', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '348962001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = '7D8TCSPFEAPBLK', `Manufacturer Item Nbr` = '828063519723' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '348962001';</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -1938,7 +1940,7 @@
       </c>
       <c r="I64" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = '7D8TCSPFEAPGRN', `Manufacturer Item Nbr` = '828063519747', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '348962304';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = '7D8TCSPFEAPGRN', `Manufacturer Item Nbr` = '828063519747' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '348962304';</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -1959,7 +1961,7 @@
       </c>
       <c r="I65" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = '7D8TCSPFEAPRYL', `Manufacturer Item Nbr` = '828063519716', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '348962431';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = '7D8TCSPFEAPRYL', `Manufacturer Item Nbr` = '828063519716' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '348962431';</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -1980,7 +1982,7 @@
       </c>
       <c r="I66" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = '7D8TCSPFEAPPRP', `Manufacturer Item Nbr` = '828063519785', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '348962502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = '7D8TCSPFEAPPRP', `Manufacturer Item Nbr` = '828063519785' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '348962502';</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2001,7 +2003,7 @@
       </c>
       <c r="I67" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q16KCAPSPMAG', `Manufacturer Item Nbr` = '828063612202', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '376052686';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q16KCAPSPMAG', `Manufacturer Item Nbr` = '828063612202' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '376052686';</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2022,7 +2024,7 @@
       </c>
       <c r="I68" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q16KCAPSPRED', `Manufacturer Item Nbr` = '828063612271', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '376052611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q16KCAPSPRED', `Manufacturer Item Nbr` = '828063612271' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '376052611';</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2043,7 +2045,7 @@
       </c>
       <c r="I69" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q16KCAPSPPRP', `Manufacturer Item Nbr` = '828063612288', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '376052502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q16KCAPSPPRP', `Manufacturer Item Nbr` = '828063612288' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '376052502';</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2064,7 +2066,7 @@
       </c>
       <c r="I70" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q16KCAPSPRYL', `Manufacturer Item Nbr` = '828063612219', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '376052431';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q16KCAPSPRYL', `Manufacturer Item Nbr` = '828063612219' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '376052431';</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2085,7 +2087,7 @@
       </c>
       <c r="I71" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q16KCAPSPBLK', `Manufacturer Item Nbr` = '828063612226', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '376052001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q16KCAPSPBLK', `Manufacturer Item Nbr` = '828063612226' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '376052001';</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2106,7 +2108,7 @@
       </c>
       <c r="I72" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = '7D8TCSPFEAPRED', `Manufacturer Item Nbr` = '828063519778', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '348962611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = '7D8TCSPFEAPRED', `Manufacturer Item Nbr` = '828063519778' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '348962611';</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2127,7 +2129,7 @@
       </c>
       <c r="I73" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = '7D8TCSPFEAPPNK', `Manufacturer Item Nbr` = '828063519709', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '348962649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = '7D8TCSPFEAPPNK', `Manufacturer Item Nbr` = '828063519709' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '348962649';</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2148,7 +2150,7 @@
       </c>
       <c r="I74" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = '7D8TCSPFEAPMAG', `Manufacturer Item Nbr` = '828063519792', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '348962686';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = '7D8TCSPFEAPMAG', `Manufacturer Item Nbr` = '828063519792' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '348962686';</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2169,7 +2171,7 @@
       </c>
       <c r="I75" t="str">
         <f t="shared" ref="I75:I129" si="1">$I$3&amp;A75&amp;$I$4&amp;C75&amp;$I$5&amp;" + sdate + "&amp;$I$6&amp;B75&amp;$I$7</f>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16TCSPAPBLK', `Manufacturer Item Nbr` = '828063414929', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '371941001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16TCSPAPBLK', `Manufacturer Item Nbr` = '828063414929' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '371941001';</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2190,7 +2192,7 @@
       </c>
       <c r="I76" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16TCSPAPBLU', `Manufacturer Item Nbr` = '828063414912', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '371941404';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16TCSPAPBLU', `Manufacturer Item Nbr` = '828063414912' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '371941404';</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2211,7 +2213,7 @@
       </c>
       <c r="I77" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16TCSPAPPRP', `Manufacturer Item Nbr` = '828063414981', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '371941502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16TCSPAPPRP', `Manufacturer Item Nbr` = '828063414981' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '371941502';</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2232,7 +2234,7 @@
       </c>
       <c r="I78" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16TCSPAPRED', `Manufacturer Item Nbr` = '828063414974', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '371941611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16TCSPAPRED', `Manufacturer Item Nbr` = '828063414974' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '371941611';</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2253,7 +2255,7 @@
       </c>
       <c r="I79" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16TCSPAPPNK', `Manufacturer Item Nbr` = '828063414905', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '371941649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16TCSPAPPNK', `Manufacturer Item Nbr` = '828063414905' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '371941649';</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2274,7 +2276,7 @@
       </c>
       <c r="I80" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-BLK', `Manufacturer Item Nbr` = '828063512922', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '372845001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-BLK', `Manufacturer Item Nbr` = '828063512922' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '372845001';</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2295,7 +2297,7 @@
       </c>
       <c r="I81" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-BLU', `Manufacturer Item Nbr` = '828063512915', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '372845404';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-BLU', `Manufacturer Item Nbr` = '828063512915' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '372845404';</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2316,7 +2318,7 @@
       </c>
       <c r="I82" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-PRP', `Manufacturer Item Nbr` = '828063512984', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '372845502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-PRP', `Manufacturer Item Nbr` = '828063512984' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '372845502';</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2337,7 +2339,7 @@
       </c>
       <c r="I83" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-RED', `Manufacturer Item Nbr` = '828063512977', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '372845611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-RED', `Manufacturer Item Nbr` = '828063512977' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '372845611';</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2358,7 +2360,7 @@
       </c>
       <c r="I84" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-PNK', `Manufacturer Item Nbr` = '828063512908', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '372845649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9D8TC-PNK', `Manufacturer Item Nbr` = '828063512908' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '372845649';</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2379,7 +2381,7 @@
       </c>
       <c r="I85" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KCAPSPBLK', `Manufacturer Item Nbr` = '828063416923', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '381644001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KCAPSPBLK', `Manufacturer Item Nbr` = '828063416923' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '381644001';</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2400,7 +2402,7 @@
       </c>
       <c r="I86" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KCAPSPBLU', `Manufacturer Item Nbr` = '828063416916', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '381644404';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KCAPSPBLU', `Manufacturer Item Nbr` = '828063416916' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '381644404';</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2421,7 +2423,7 @@
       </c>
       <c r="I87" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KCAPSPPRP', `Manufacturer Item Nbr` = '828063416985', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '381644502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KCAPSPPRP', `Manufacturer Item Nbr` = '828063416985' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '381644502';</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2442,7 +2444,7 @@
       </c>
       <c r="I88" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KCAPSPPNK', `Manufacturer Item Nbr` = '828063416909', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '381644649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KCAPSPPNK', `Manufacturer Item Nbr` = '828063416909' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '381644649';</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2463,7 +2465,7 @@
       </c>
       <c r="I89" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KCAPSPRED', `Manufacturer Item Nbr` = '828063416978', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '381644611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KCAPSPRED', `Manufacturer Item Nbr` = '828063416978' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '381644611';</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2484,7 +2486,7 @@
       </c>
       <c r="I90" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCAPBLK', `Manufacturer Item Nbr` = '828063316827', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '382282001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCAPBLK', `Manufacturer Item Nbr` = '828063316827' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '382282001';</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -2505,7 +2507,7 @@
       </c>
       <c r="I91" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCAPGRN', `Manufacturer Item Nbr` = '828063316841', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '382282304';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCAPGRN', `Manufacturer Item Nbr` = '828063316841' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '382282304';</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -2526,7 +2528,7 @@
       </c>
       <c r="I92" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCAPPRP', `Manufacturer Item Nbr` = '828063316889', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '382282502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCAPPRP', `Manufacturer Item Nbr` = '828063316889' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '382282502';</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -2547,7 +2549,7 @@
       </c>
       <c r="I93" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCAPRED', `Manufacturer Item Nbr` = '828063316872', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '382282611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCAPRED', `Manufacturer Item Nbr` = '828063316872' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '382282611';</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -2568,7 +2570,7 @@
       </c>
       <c r="I94" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCAPPNK', `Manufacturer Item Nbr` = '828063316803', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '382282649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCAPPNK', `Manufacturer Item Nbr` = '828063316803' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '382282649';</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -2589,7 +2591,7 @@
       </c>
       <c r="I95" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCAPMAG', `Manufacturer Item Nbr` = '828063316865', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '382282686';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCAPMAG', `Manufacturer Item Nbr` = '828063316865' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '382282686';</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -2610,7 +2612,7 @@
       </c>
       <c r="I96" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCAPRYL', `Manufacturer Item Nbr` = '828063316858', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '382282B6S';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCAPRYL', `Manufacturer Item Nbr` = '828063316858' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '382282B6S';</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -2631,7 +2633,7 @@
       </c>
       <c r="I97" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7Q-16GB-F-BLK', `Manufacturer Item Nbr` = '828063818727', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405311001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7Q-16GB-F-BLK', `Manufacturer Item Nbr` = '828063818727' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405311001';</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -2652,7 +2654,7 @@
       </c>
       <c r="I98" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7Q-16GB-F-GRN', `Manufacturer Item Nbr` = '828063818741', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405311304';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7Q-16GB-F-GRN', `Manufacturer Item Nbr` = '828063818741' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405311304';</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -2673,7 +2675,7 @@
       </c>
       <c r="I99" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7Q-16GB-F-RYL', `Manufacturer Item Nbr` = '828063818765', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405311431';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7Q-16GB-F-RYL', `Manufacturer Item Nbr` = '828063818765' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405311431';</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -2694,7 +2696,7 @@
       </c>
       <c r="I100" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7Q-16GB-F-PRP', `Manufacturer Item Nbr` = '828063818789', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405311502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7Q-16GB-F-PRP', `Manufacturer Item Nbr` = '828063818789' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405311502';</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -2715,7 +2717,7 @@
       </c>
       <c r="I101" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7Q-16GB-F-RED', `Manufacturer Item Nbr` = '828063818772', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405311611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7Q-16GB-F-RED', `Manufacturer Item Nbr` = '828063818772' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405311611';</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -2736,7 +2738,7 @@
       </c>
       <c r="I102" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7Q-16GB-F-PNK', `Manufacturer Item Nbr` = '828063818703', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405311649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7Q-16GB-F-PNK', `Manufacturer Item Nbr` = '828063818703' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405311649';</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -2757,7 +2759,7 @@
       </c>
       <c r="I103" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7Q-16GB-F-MAG', `Manufacturer Item Nbr` = '828063918700', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405311686';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-7Q-16GB-F-MAG', `Manufacturer Item Nbr` = '828063918700' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405311686';</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -2778,7 +2780,7 @@
       </c>
       <c r="I104" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-PC-018-PNK', `Manufacturer Item Nbr` = '828063302806', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405305649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-PC-018-PNK', `Manufacturer Item Nbr` = '828063302806' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405305649';</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -2799,7 +2801,7 @@
       </c>
       <c r="I105" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-PC-018-MAG', `Manufacturer Item Nbr` = '828063302868', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405305686';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-PC-018-MAG', `Manufacturer Item Nbr` = '828063302868' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405305686';</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -2820,7 +2822,7 @@
       </c>
       <c r="I106" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-PC-018-RYL', `Manufacturer Item Nbr` = '828063302851', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405305431';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-PC-018-RYL', `Manufacturer Item Nbr` = '828063302851' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405305431';</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -2841,7 +2843,7 @@
       </c>
       <c r="I107" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-PC-018-BLK', `Manufacturer Item Nbr` = '828063302820', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405305001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-PC-018-BLK', `Manufacturer Item Nbr` = '828063302820' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405305001';</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -2862,7 +2864,7 @@
       </c>
       <c r="I108" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-PC-018-GRN', `Manufacturer Item Nbr` = '828063302844', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405305304';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-PC-018-GRN', `Manufacturer Item Nbr` = '828063302844' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405305304';</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -2883,7 +2885,7 @@
       </c>
       <c r="I109" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-PC-018-RED', `Manufacturer Item Nbr` = '828063302875', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405305611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-PC-018-RED', `Manufacturer Item Nbr` = '828063302875' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405305611';</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -2904,7 +2906,7 @@
       </c>
       <c r="I110" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-PC-018-PRP', `Manufacturer Item Nbr` = '828063302882', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405305502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-PC-018-PRP', `Manufacturer Item Nbr` = '828063302882' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '405305502';</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -2925,7 +2927,7 @@
       </c>
       <c r="I111" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KC25-BLK', `Manufacturer Item Nbr` = '828063417920', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '401565001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KC25-BLK', `Manufacturer Item Nbr` = '828063417920' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '401565001';</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -2946,7 +2948,7 @@
       </c>
       <c r="I112" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KC25-BLU', `Manufacturer Item Nbr` = '828063417913', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '401565404';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KC25-BLU', `Manufacturer Item Nbr` = '828063417913' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '401565404';</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -2967,7 +2969,7 @@
       </c>
       <c r="I113" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KC25-PRP', `Manufacturer Item Nbr` = '828063417982', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '401565502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KC25-PRP', `Manufacturer Item Nbr` = '828063417982' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '401565502';</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -2988,7 +2990,7 @@
       </c>
       <c r="I114" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KC25-RED', `Manufacturer Item Nbr` = '828063417975', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '401565611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KC25-RED', `Manufacturer Item Nbr` = '828063417975' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '401565611';</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3009,7 +3011,7 @@
       </c>
       <c r="I115" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KC25-PNK', `Manufacturer Item Nbr` = '828063417982', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '401565649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME9Q16KC25-PNK', `Manufacturer Item Nbr` = '828063417982' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '401565649';</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3030,7 +3032,7 @@
       </c>
       <c r="I116" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCBLKBLK', `Manufacturer Item Nbr` = '828063417821', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '413848001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCBLKBLK', `Manufacturer Item Nbr` = '828063417821' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '413848001';</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3051,7 +3053,7 @@
       </c>
       <c r="I117" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCBLKGRN', `Manufacturer Item Nbr` = '828063417845', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '413848304';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCBLKGRN', `Manufacturer Item Nbr` = '828063417845' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '413848304';</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3072,7 +3074,7 @@
       </c>
       <c r="I118" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCBLKRYL', `Manufacturer Item Nbr` = '828063417852', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '413848431';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCBLKRYL', `Manufacturer Item Nbr` = '828063417852' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '413848431';</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3093,7 +3095,7 @@
       </c>
       <c r="I119" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCBLKPRP', `Manufacturer Item Nbr` = '828063417883', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '413848502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCBLKPRP', `Manufacturer Item Nbr` = '828063417883' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '413848502';</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3114,7 +3116,7 @@
       </c>
       <c r="I120" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCBLKRED', `Manufacturer Item Nbr` = '828063417876', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '413848611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCBLKRED', `Manufacturer Item Nbr` = '828063417876' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '413848611';</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3135,7 +3137,7 @@
       </c>
       <c r="I121" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCBLKPNK', `Manufacturer Item Nbr` = '828063417807', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '413848649';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCBLKPNK', `Manufacturer Item Nbr` = '828063417807' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '413848649';</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3156,7 +3158,7 @@
       </c>
       <c r="I122" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCBLKMAG', `Manufacturer Item Nbr` = '828063417869', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '413848686';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME8Q8TCBLKMAG', `Manufacturer Item Nbr` = '828063417869' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '413848686';</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3177,7 +3179,7 @@
       </c>
       <c r="I123" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q5M16KCBLK', `Manufacturer Item Nbr` = '828063712223', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '407780001';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q5M16KCBLK', `Manufacturer Item Nbr` = '828063712223' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '407780001';</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -3198,7 +3200,7 @@
       </c>
       <c r="I124" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q5M16KCMAG', `Manufacturer Item Nbr` = '828063712209', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '407780686';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q5M16KCMAG', `Manufacturer Item Nbr` = '828063712209' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '407780686';</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -3219,7 +3221,7 @@
       </c>
       <c r="I125" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q5M16KCRYL', `Manufacturer Item Nbr` = '828063712216', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '407780431';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q5M16KCRYL', `Manufacturer Item Nbr` = '828063712216' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '407780431';</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -3240,7 +3242,7 @@
       </c>
       <c r="I126" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q5M16KCRED', `Manufacturer Item Nbr` = '828063712278', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '407780611';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q5M16KCRED', `Manufacturer Item Nbr` = '828063712278' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '407780611';</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -3261,7 +3263,7 @@
       </c>
       <c r="I127" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q5M16KCPRP', `Manufacturer Item Nbr` = '828063712285', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '407780502';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME10Q5M16KCPRP', `Manufacturer Item Nbr` = '828063712285' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '407780502';</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -3282,7 +3284,7 @@
       </c>
       <c r="I128" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-89W-BK-16GB', `Manufacturer Item Nbr` = '828063540925', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '401789';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-89W-BK-16GB', `Manufacturer Item Nbr` = '828063540925' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '401789';</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -3303,7 +3305,7 @@
       </c>
       <c r="I129" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-101W-DK-16GB', `Manufacturer Item Nbr` = '828063540123', WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '401792';</v>
+        <v>UPDATE HSN SET `Buyer Item Nbr` = 'ME-101W-DK-16GB', `Manufacturer Item Nbr` = '828063540123' WHERE `ProcessedDate` = '" + sdate + "' AND `Supplier Item Nbr` = '401792';</v>
       </c>
     </row>
   </sheetData>
